--- a/ocms/target/test-classes/TestData/AdhocOptionEnhancementData.xlsx
+++ b/ocms/target/test-classes/TestData/AdhocOptionEnhancementData.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DDF097B-D0FE-4D47-8B1D-DA847909A335}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15210" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
     <sheet name="Edit" sheetId="2" r:id="rId2"/>
     <sheet name="Delete" sheetId="3" r:id="rId3"/>
     <sheet name="Invalid" sheetId="4" r:id="rId4"/>
+    <sheet name="Queries" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:G20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="36">
   <si>
     <t>Modify Reason</t>
   </si>
@@ -46,9 +47,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
     <t>TestAdhoc</t>
   </si>
   <si>
@@ -104,12 +102,52 @@
   </si>
   <si>
     <t>Promotion Name Wav File</t>
+  </si>
+  <si>
+    <t>HoliWishes</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>WelcomeTetherfi.wav</t>
+  </si>
+  <si>
+    <t>Mandarin</t>
+  </si>
+  <si>
+    <t>TestAdhocUpdated</t>
+  </si>
+  <si>
+    <t>Updated Promotion Description</t>
+  </si>
+  <si>
+    <t>Modified</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>SELECT PROMOTION_NUMBER as 'Promotion Number'
+   ,PROMOTION_DESC as 'Promotion Description'
+      ,[LANGUAGE] as 'Language'
+   ,PROMOTION_DESC_WAVFILE as 'Promotion Name Wav File'
+   ,PROMOTION_WAVFILE as 'Promotion Details Wav File'
+   ,FAX_ENABLED as 'Direct Transfer Enabled'
+   ,AGENT_GROUP as 'Intent'
+   ,STATUS as 'Status'
+   ,[LAST_CHANGED_BY] as 'Last Changed By'
+      ,Substring(LAST_CHANGED_ON,11,18) as 'Last Changed On'
+ FROM [Product_OCM].[dbo].[IVR_Promotions]</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -161,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -178,6 +216,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,18 +496,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,17 +516,18 @@
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
-    <col min="7" max="8" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="8" max="8" width="6.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
         <v>15</v>
-      </c>
-      <c r="B1" t="s">
-        <v>16</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
@@ -489,10 +536,10 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
@@ -501,30 +548,64 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>12</v>
+    </row>
+    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -534,94 +615,102 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" customWidth="1"/>
-    <col min="7" max="8" width="22" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" customWidth="1"/>
+    <col min="7" max="7" width="24" customWidth="1"/>
+    <col min="8" max="8" width="25.5703125" customWidth="1"/>
     <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" customWidth="1"/>
+    <col min="12" max="12" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" s="8" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>22</v>
+      <c r="K2" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -631,11 +720,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,29 +732,119 @@
     <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" customWidth="1"/>
+    <col min="9" max="9" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
         <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>14</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="8"/>
+    </row>
+    <row r="2" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="9"/>
+    </row>
+    <row r="3" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -674,11 +853,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E675BC11-907C-45BE-86A3-DB75497EA01E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,16 +878,16 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>3</v>
@@ -717,10 +896,10 @@
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>5</v>
@@ -735,15 +914,15 @@
         <v>2</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="4"/>
@@ -756,15 +935,15 @@
       <c r="K2" s="6"/>
       <c r="L2" s="7"/>
       <c r="M2" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="4"/>
@@ -777,85 +956,113 @@
       <c r="K3" s="6"/>
       <c r="L3" s="7"/>
       <c r="M3" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="6" t="s">
+      <c r="J4" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>12</v>
       </c>
       <c r="K4" s="6"/>
       <c r="L4" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="G5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="6" t="s">
+      <c r="J5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="6" t="s">
-        <v>12</v>
-      </c>
       <c r="K5" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.85546875" style="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="255" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/target/test-classes/TestData/AdhocOptionEnhancementData.xlsx
+++ b/ocms/target/test-classes/TestData/AdhocOptionEnhancementData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="15210" windowHeight="6495"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="13635" windowHeight="6495" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Queries" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:G20"/>
+  <oleSize ref="F1:L18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -496,7 +496,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -506,7 +506,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -618,7 +618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
@@ -857,15 +857,15 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" customWidth="1"/>
     <col min="7" max="8" width="22" customWidth="1"/>

--- a/ocms/target/test-classes/TestData/AdhocOptionEnhancementData.xlsx
+++ b/ocms/target/test-classes/TestData/AdhocOptionEnhancementData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="13635" windowHeight="6495" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14775" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Queries" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="F1:L18"/>
+  <oleSize ref="A1:G20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -128,6 +128,9 @@
     <t>Query</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>SELECT PROMOTION_NUMBER as 'Promotion Number'
    ,PROMOTION_DESC as 'Promotion Description'
       ,[LANGUAGE] as 'Language'
@@ -138,10 +141,7 @@
    ,STATUS as 'Status'
    ,[LAST_CHANGED_BY] as 'Last Changed By'
       ,Substring(LAST_CHANGED_ON,11,18) as 'Last Changed On'
- FROM [Product_OCM].[dbo].[IVR_Promotions]</t>
-  </si>
-  <si>
-    <t>1</t>
+ FROM [IVR_Promotions]</t>
   </si>
 </sst>
 </file>
@@ -496,7 +496,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -506,7 +506,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -602,7 +602,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -618,7 +618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
@@ -1046,8 +1046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1060,9 +1060,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="255" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="240" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/target/test-classes/TestData/AdhocOptionEnhancementData.xlsx
+++ b/ocms/target/test-classes/TestData/AdhocOptionEnhancementData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14775" windowHeight="6495"/>
+    <workbookView xWindow="5160" yWindow="3315" windowWidth="14775" windowHeight="6495" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Queries" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:G20"/>
+  <oleSize ref="A1:K5"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -496,7 +496,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -506,7 +506,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -1046,7 +1046,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/ocms/target/test-classes/TestData/AdhocOptionEnhancementData.xlsx
+++ b/ocms/target/test-classes/TestData/AdhocOptionEnhancementData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="5160" yWindow="3315" windowWidth="14775" windowHeight="6495" activeTab="4"/>
+    <workbookView xWindow="5160" yWindow="3315" windowWidth="14775" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,6 @@
     <sheet name="Queries" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:K5"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="38">
   <si>
     <t>Modify Reason</t>
   </si>
@@ -142,6 +141,12 @@
    ,[LAST_CHANGED_BY] as 'Last Changed By'
       ,Substring(LAST_CHANGED_ON,11,18) as 'Last Changed On'
  FROM [IVR_Promotions]</t>
+  </si>
+  <si>
+    <t>Holi</t>
+  </si>
+  <si>
+    <t>Wishes</t>
   </si>
 </sst>
 </file>
@@ -496,7 +501,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -504,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,7 +553,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
@@ -574,7 +579,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>27</v>
       </c>
@@ -606,6 +611,16 @@
       </c>
       <c r="C4" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -774,7 +789,7 @@
       </c>
       <c r="L1" s="8"/>
     </row>
-    <row r="2" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -810,7 +825,7 @@
       </c>
       <c r="L2" s="9"/>
     </row>
-    <row r="3" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1046,7 +1061,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/ocms/target/test-classes/TestData/AdhocOptionEnhancementData.xlsx
+++ b/ocms/target/test-classes/TestData/AdhocOptionEnhancementData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="5160" yWindow="3315" windowWidth="14775" windowHeight="6495"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="8040" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="Queries" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:O9"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -511,7 +512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -633,7 +634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
@@ -1061,7 +1062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/ocms/target/test-classes/TestData/AdhocOptionEnhancementData.xlsx
+++ b/ocms/target/test-classes/TestData/AdhocOptionEnhancementData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="8040" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15600" windowHeight="6615" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Queries" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:O9"/>
+  <oleSize ref="A1:I20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -502,7 +502,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -739,8 +739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,7 +788,6 @@
       <c r="K1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="8"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -824,7 +823,6 @@
       <c r="K2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="9"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -860,7 +858,6 @@
       <c r="K3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1062,7 +1059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/ocms/target/test-classes/TestData/AdhocOptionEnhancementData.xlsx
+++ b/ocms/target/test-classes/TestData/AdhocOptionEnhancementData.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC00B3DA-A43F-4C21-9C66-830F2CEEF17E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="15600" windowHeight="6615" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
-    <sheet name="Edit" sheetId="2" r:id="rId2"/>
-    <sheet name="Delete" sheetId="3" r:id="rId3"/>
-    <sheet name="Invalid" sheetId="4" r:id="rId4"/>
-    <sheet name="Queries" sheetId="5" r:id="rId5"/>
+    <sheet name="Search" sheetId="6" r:id="rId2"/>
+    <sheet name="Edit" sheetId="2" r:id="rId3"/>
+    <sheet name="Delete" sheetId="3" r:id="rId4"/>
+    <sheet name="Invalid" sheetId="4" r:id="rId5"/>
+    <sheet name="Queries" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:I20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="42">
   <si>
     <t>Modify Reason</t>
   </si>
@@ -129,6 +130,21 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>Holi</t>
+  </si>
+  <si>
+    <t>Wishes</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>Deleted</t>
+  </si>
+  <si>
+    <t>HappyTest</t>
   </si>
   <si>
     <t>SELECT PROMOTION_NUMBER as 'Promotion Number'
@@ -141,19 +157,16 @@
    ,STATUS as 'Status'
    ,[LAST_CHANGED_BY] as 'Last Changed By'
       ,Substring(LAST_CHANGED_ON,11,18) as 'Last Changed On'
- FROM [IVR_Promotions]</t>
-  </si>
-  <si>
-    <t>Holi</t>
-  </si>
-  <si>
-    <t>Wishes</t>
+ FROM [IVR_Promotions] Order By PROMOTION_DESC Asc;</t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -205,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -230,6 +243,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -502,33 +518,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" customWidth="1"/>
-    <col min="6" max="6" width="26.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
-    <col min="8" max="8" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.109375" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" customWidth="1"/>
+    <col min="8" max="8" width="6.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -554,7 +570,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
@@ -580,12 +596,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>29</v>
@@ -606,7 +622,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>34</v>
       </c>
@@ -614,14 +630,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -631,232 +647,172 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B9C340-534A-44A1-BAB1-EBEB7B537D1C}">
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.28515625" customWidth="1"/>
-    <col min="7" max="7" width="24" customWidth="1"/>
-    <col min="8" max="8" width="25.5703125" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" customWidth="1"/>
-    <col min="12" max="12" width="29.140625" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.77734375" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="6" max="6" width="23.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="8" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="8" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="B1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="E1" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" t="s">
-        <v>30</v>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" customWidth="1"/>
-    <col min="9" max="9" width="26" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" customWidth="1"/>
+    <col min="7" max="7" width="24" customWidth="1"/>
+    <col min="8" max="8" width="25.5546875" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.88671875" customWidth="1"/>
+    <col min="12" max="12" width="29.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" s="8" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
+      <c r="C1" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E2" t="s">
-        <v>30</v>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="K2" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" t="s">
         <v>30</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -866,30 +822,170 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:L3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" customWidth="1"/>
+    <col min="8" max="8" width="26.6640625" customWidth="1"/>
+    <col min="9" max="9" width="26" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" customWidth="1"/>
     <col min="7" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" customWidth="1"/>
     <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
@@ -930,7 +1026,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
@@ -951,7 +1047,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
@@ -972,7 +1068,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
@@ -1011,7 +1107,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
@@ -1055,27 +1151,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A5" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.85546875" style="10" customWidth="1"/>
+    <col min="1" max="1" width="40.88671875" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="240" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
